--- a/mixs-templates/Mimag_plus_combinations/MimagBuiltEnvironment.xlsx
+++ b/mixs-templates/Mimag_plus_combinations/MimagBuiltEnvironment.xlsx
@@ -1534,7 +1534,7 @@
       </c>
     </row>
   </sheetData>
-  <dataValidations count="87">
+  <dataValidations count="89">
     <dataValidation sqref="G2:G1048576" showDropDown="0" showInputMessage="0" showErrorMessage="0" allowBlank="1" type="list">
       <formula1>"contigs,reads"</formula1>
     </dataValidation>
@@ -1550,6 +1550,9 @@
     <dataValidation sqref="AB2:AB1048576" showDropDown="0" showInputMessage="0" showErrorMessage="0" allowBlank="1" type="list">
       <formula1>"other,paired,single,vector"</formula1>
     </dataValidation>
+    <dataValidation sqref="AD2:AD1048576" showDropDown="0" showInputMessage="0" showErrorMessage="0" allowBlank="1" type="list">
+      <formula1>"Finished genome,High-quality draft genome,Medium-quality draft genome,Low-quality draft genome,Genome fragment(s)"</formula1>
+    </dataValidation>
     <dataValidation sqref="AI2:AI1048576" showDropDown="0" showInputMessage="0" showErrorMessage="0" allowBlank="1" type="list">
       <formula1>"DNA-free PCR mix,distilled water,empty collection device,empty collection tube,phosphate buffer,sterile swab,sterile syringe"</formula1>
     </dataValidation>
@@ -1717,6 +1720,9 @@
     </dataValidation>
     <dataValidation sqref="FZ2:FZ1048576" showDropDown="0" showInputMessage="0" showErrorMessage="0" allowBlank="1" type="list">
       <formula1>"clear sky,cloudy,foggy,hail,rain,sleet,snow,sunny,windy"</formula1>
+    </dataValidation>
+    <dataValidation sqref="GD2:GD1048576" showDropDown="0" showInputMessage="0" showErrorMessage="0" allowBlank="1" type="list">
+      <formula1>"autumn [NCIT:C94733],spring [NCIT:C94731],summer [NCIT:C94732],winter [NCIT:C94730]"</formula1>
     </dataValidation>
     <dataValidation sqref="GE2:GE1048576" showDropDown="0" showInputMessage="0" showErrorMessage="0" allowBlank="1" type="list">
       <formula1>"Fall,Spring,Summer,Winter"</formula1>
